--- a/docs/hw_t1_adkins_wardell.xlsx
+++ b/docs/hw_t1_adkins_wardell.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2160" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="HW T1-Grader" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Pay Rate</t>
   </si>
@@ -98,13 +98,20 @@
   </si>
   <si>
     <t>Name 2</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Jane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -242,18 +249,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -266,21 +282,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -589,76 +590,80 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" customWidth="1"/>
-    <col min="6" max="12" width="5.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="6" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="G4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18">
         <v>10</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -674,32 +679,32 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -715,16 +720,32 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -740,16 +761,26 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F10" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -765,16 +796,28 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
+        <v>702.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -791,16 +834,26 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F12" s="9">
+        <v>10.75</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9.25</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9.25</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10.75</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -817,16 +870,28 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -842,16 +907,20 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10">
+        <v>702.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -867,16 +936,22 @@
       <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="M15" s="10">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -892,16 +967,28 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="9">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10">
+        <v>477.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -917,16 +1004,30 @@
       <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="L17" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="M17" s="10">
+        <v>747.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -942,16 +1043,30 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="H18" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="J18" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10">
+        <v>477.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -968,16 +1083,28 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="G19" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="H19" s="9">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9">
+        <v>9.25</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -994,16 +1121,30 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="I20" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="M20" s="10">
+        <v>477.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>13</v>
       </c>
@@ -1020,16 +1161,30 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="G21" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="J21" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="K21" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -1045,16 +1200,32 @@
       <c r="E22" s="5">
         <v>2</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="J22" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="K22" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="L22" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="M22" s="10">
+        <v>657.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -1071,16 +1242,32 @@
       <c r="E23" s="5">
         <v>2</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="G23" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="I23" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="J23" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="K23" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="L23" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="M23" s="10">
+        <v>702.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -1096,16 +1283,26 @@
       <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="H24" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10.75</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -1121,16 +1318,28 @@
       <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="G25" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="H25" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="I25" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="J25" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -1146,16 +1355,28 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="G26" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="H26" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="I26" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10">
+        <v>702.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -1171,16 +1392,30 @@
       <c r="E27" s="5">
         <v>2</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="H27" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="I27" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="L27" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="M27" s="10">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -1196,16 +1431,30 @@
       <c r="E28" s="5">
         <v>1</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="G28" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="H28" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="I28" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="K28" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10">
+        <v>432.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>21</v>
       </c>
@@ -1221,17 +1470,32 @@
       <c r="E29" s="5">
         <v>2</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="6"/>
+      <c r="F29" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="G29" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="I29" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="J29" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="K29" s="9">
+        <v>7.25</v>
+      </c>
+      <c r="L29" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="M29" s="10">
+        <v>747.5</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="B7:E7"/>

--- a/docs/hw_t1_adkins_wardell.xlsx
+++ b/docs/hw_t1_adkins_wardell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3120" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="HW T1-Grader" sheetId="4" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10">
-        <v>567.5</v>
+        <v>557.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10">
-        <v>702.5</v>
+        <v>647.5</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10">
-        <v>567.5</v>
+        <v>622.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10">
-        <v>635</v>
+        <v>627.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="10">
-        <v>702.5</v>
+        <v>602.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="10">
-        <v>477.5</v>
+        <v>647.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>7.75</v>
       </c>
       <c r="M17" s="10">
-        <v>747.5</v>
+        <v>527.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="10">
-        <v>477.5</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="10">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>6.25</v>
       </c>
       <c r="M20" s="10">
-        <v>477.5</v>
+        <v>512.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="10">
-        <v>635</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>4.25</v>
       </c>
       <c r="M22" s="10">
-        <v>657.5</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>5.75</v>
       </c>
       <c r="M23" s="10">
-        <v>702.5</v>
+        <v>577.5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10">
-        <v>725</v>
+        <v>617.5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10">
-        <v>455</v>
+        <v>597.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="10">
-        <v>702.5</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>7.5</v>
       </c>
       <c r="M27" s="10">
-        <v>567.5</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="10">
-        <v>432.5</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>6.75</v>
       </c>
       <c r="M29" s="10">
-        <v>747.5</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
